--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna2-Epha5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna2-Epha5.xlsx
@@ -531,22 +531,22 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.399915</v>
+        <v>3.034777666666667</v>
       </c>
       <c r="H2">
-        <v>4.199745</v>
+        <v>9.104333</v>
       </c>
       <c r="I2">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="J2">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1979113333333334</v>
+        <v>0.3045636666666667</v>
       </c>
       <c r="N2">
-        <v>0.5937340000000001</v>
+        <v>0.913691</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.2770590442033334</v>
+        <v>0.9242830136781112</v>
       </c>
       <c r="R2">
-        <v>2.49353139783</v>
+        <v>8.318547123103</v>
       </c>
       <c r="S2">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="T2">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>17.592014</v>
       </c>
       <c r="I3">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="J3">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,10 +617,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1979113333333334</v>
+        <v>0.3045636666666667</v>
       </c>
       <c r="N3">
-        <v>0.5937340000000001</v>
+        <v>0.913691</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>1.160552982252889</v>
+        <v>1.785962762630444</v>
       </c>
       <c r="R3">
-        <v>10.444976840276</v>
+        <v>16.073664863674</v>
       </c>
       <c r="S3">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="T3">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.287676333333333</v>
+        <v>2.564975</v>
       </c>
       <c r="H4">
-        <v>6.863029</v>
+        <v>7.694925</v>
       </c>
       <c r="I4">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="J4">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,10 +679,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1979113333333334</v>
+        <v>0.3045636666666667</v>
       </c>
       <c r="N4">
-        <v>0.5937340000000001</v>
+        <v>0.913691</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.4527570733651111</v>
+        <v>0.7811981909083333</v>
       </c>
       <c r="R4">
-        <v>4.074813660286001</v>
+        <v>7.030783718175</v>
       </c>
       <c r="S4">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="T4">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3047273333333333</v>
+        <v>0.6643690000000001</v>
       </c>
       <c r="H5">
-        <v>0.9141819999999999</v>
+        <v>1.993107</v>
       </c>
       <c r="I5">
-        <v>0.03091693758693657</v>
+        <v>0.05477919521451775</v>
       </c>
       <c r="J5">
-        <v>0.03091693758693657</v>
+        <v>0.05477919521451775</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,10 +741,10 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1979113333333334</v>
+        <v>0.3045636666666667</v>
       </c>
       <c r="N5">
-        <v>0.5937340000000001</v>
+        <v>0.913691</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.06030899284311111</v>
+        <v>0.2023426586596667</v>
       </c>
       <c r="R5">
-        <v>0.542780935588</v>
+        <v>1.821083927937</v>
       </c>
       <c r="S5">
-        <v>0.03091693758693657</v>
+        <v>0.05477919521451775</v>
       </c>
       <c r="T5">
-        <v>0.03091693758693657</v>
+        <v>0.05477919521451775</v>
       </c>
     </row>
   </sheetData>
